--- a/f_docs/diagrams.xlsx
+++ b/f_docs/diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Blood_Science\f_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDEB4F9-C965-4BDB-A606-5FB318A4EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85FB66A-D32E-44B9-AE7D-E1C27AAFDE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1484,15 +1484,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>kd=0.2</c:v>
+            <c:v>kd=0.5</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1527,24 +1527,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$5:$N$5</c:f>
+              <c:f>Лист1!$J$8:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.6167218420000006E-8</c:v>
+                  <c:v>4.5761254329999996E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0611441280000006E-8</c:v>
+                  <c:v>3.9964900870000003E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7200057789999999E-8</c:v>
+                  <c:v>3.6425990510000002E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4189056510000001E-8</c:v>
+                  <c:v>3.3354694880000004E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.173071354E-8</c:v>
+                  <c:v>3.1010502839999999E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,80 +1552,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-88B8-47EA-B380-59007F081B57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>kd=0.4</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$J$2:$N$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$J$7:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000000E+00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.5893871679999998E-8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0181695959999998E-8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6691735629999998E-8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3628515550000003E-8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1224560929999999E-8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-88B8-47EA-B380-59007F081B57}"/>
+              <c16:uniqueId val="{00000007-88B8-47EA-B380-59007F081B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1731,6 +1658,93 @@
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
               <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>kd=0.2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$J$2:$N$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$J$5:$N$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000000000E+00</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>4.6167218420000006E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.0611441280000006E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.7200057789999999E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.4189056510000001E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.173071354E-8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-88B8-47EA-B380-59007F081B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
                 <c:tx>
@@ -1818,15 +1832,15 @@
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
+                <c:idx val="4"/>
+                <c:order val="4"/>
                 <c:tx>
-                  <c:v>kd=0.5</c:v>
+                  <c:v>kd=0.4</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent6"/>
+                      <a:schemeClr val="accent5"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -1870,7 +1884,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$J$8:$N$8</c15:sqref>
+                          <c15:sqref>Лист1!$J$7:$N$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1878,19 +1892,19 @@
                       <c:formatCode>0.000000000E+00</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>4.5761254329999996E-8</c:v>
+                        <c:v>4.5893871679999998E-8</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3.9964900870000003E-8</c:v>
+                        <c:v>4.0181695959999998E-8</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.6425990510000002E-8</c:v>
+                        <c:v>3.6691735629999998E-8</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.3354694880000004E-8</c:v>
+                        <c:v>3.3628515550000003E-8</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.1010502839999999E-8</c:v>
+                        <c:v>3.1224560929999999E-8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1898,7 +1912,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-88B8-47EA-B380-59007F081B57}"/>
+                    <c16:uniqueId val="{00000006-88B8-47EA-B380-59007F081B57}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -4335,8 +4349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9514D8-D60F-4F11-9E53-FB087E6D2D1E}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/f_docs/diagrams.xlsx
+++ b/f_docs/diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Blood_Science\f_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85FB66A-D32E-44B9-AE7D-E1C27AAFDE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08CC354-6E18-49D4-B726-36E790676D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>М/С</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>Переделать под милимметры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделать график с эффективной вязкостью делённой на вязкость плазмы. </t>
+  </si>
+  <si>
+    <t>Перевести в термины вязкости</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1441,7 @@
             <c:numRef>
               <c:f>Лист1!$J$2:$N$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
@@ -1505,7 +1514,7 @@
             <c:numRef>
               <c:f>Лист1!$J$2:$N$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
@@ -1598,7 +1607,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.0</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0.1</c:v>
@@ -1677,7 +1686,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$J$2:$N$2</c15:sqref>
@@ -1685,7 +1694,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.0</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0.1</c:v>
@@ -1707,7 +1716,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$J$5:$N$5</c15:sqref>
@@ -1736,7 +1745,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-88B8-47EA-B380-59007F081B57}"/>
                   </c:ext>
@@ -1764,7 +1773,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$J$2:$N$2</c15:sqref>
@@ -1772,7 +1781,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.0</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0.1</c:v>
@@ -1794,7 +1803,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$J$6:$N$6</c15:sqref>
@@ -1823,7 +1832,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-88B8-47EA-B380-59007F081B57}"/>
                   </c:ext>
@@ -1851,7 +1860,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$J$2:$N$2</c15:sqref>
@@ -1859,7 +1868,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.0</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0.1</c:v>
@@ -1881,7 +1890,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$J$7:$N$7</c15:sqref>
@@ -1910,7 +1919,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-88B8-47EA-B380-59007F081B57}"/>
                   </c:ext>
@@ -1982,7 +1991,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4349,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9514D8-D60F-4F11-9E53-FB087E6D2D1E}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4735,27 +4744,27 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f>A10/1000</f>
+        <f t="shared" ref="A12:F12" si="2">A10/1000</f>
         <v>3.4489263900000002E-8</v>
       </c>
       <c r="B12" s="2">
-        <f>B10/1000</f>
+        <f t="shared" si="2"/>
         <v>3.441084986E-8</v>
       </c>
       <c r="C12" s="2">
-        <f>C10/1000</f>
+        <f t="shared" si="2"/>
         <v>3.4189056510000001E-8</v>
       </c>
       <c r="D12" s="2">
-        <f>D10/1000</f>
+        <f t="shared" si="2"/>
         <v>3.3914951550000003E-8</v>
       </c>
       <c r="E12" s="2">
-        <f>E10/1000</f>
+        <f t="shared" si="2"/>
         <v>3.3628515550000003E-8</v>
       </c>
       <c r="F12" s="2">
-        <f>F10/1000</f>
+        <f t="shared" si="2"/>
         <v>3.3354694880000004E-8</v>
       </c>
       <c r="G12" t="s">
@@ -4768,15 +4777,15 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:F13" si="2">($A10 - B10 ) / B10</f>
+        <f t="shared" ref="B13:F13" si="3">($A10 - B10 ) / B10</f>
         <v>2.2787591797071667E-3</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7808035858546896E-3</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6933898583145566E-2</v>
       </c>
       <c r="E13" s="2">
@@ -4784,7 +4793,7 @@
         <v>2.5595787858081611E-2</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4015272035370983E-2</v>
       </c>
       <c r="G13" t="s">
@@ -4800,6 +4809,12 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -4869,27 +4884,27 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f>A17/1000</f>
+        <f t="shared" ref="A19:F19" si="4">A17/1000</f>
         <v>3.746803294E-8</v>
       </c>
       <c r="B19" s="2">
-        <f>B17/1000</f>
+        <f t="shared" si="4"/>
         <v>3.7393265840000004E-8</v>
       </c>
       <c r="C19" s="2">
-        <f>C17/1000</f>
+        <f t="shared" si="4"/>
         <v>3.7200057789999999E-8</v>
       </c>
       <c r="D19" s="2">
-        <f>D17/1000</f>
+        <f t="shared" si="4"/>
         <v>3.6948894710000005E-8</v>
       </c>
       <c r="E19" s="2">
-        <f>E17/1000</f>
+        <f t="shared" si="4"/>
         <v>3.6691735629999998E-8</v>
       </c>
       <c r="F19" s="2">
-        <f>F17/1000</f>
+        <f t="shared" si="4"/>
         <v>3.6425990510000002E-8</v>
       </c>
       <c r="G19" t="s">
@@ -4902,15 +4917,15 @@
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" ref="B20:F20" si="3">($A17 - B17 ) / B17</f>
+        <f t="shared" ref="B20:F20" si="5">($A17 - B17 ) / B17</f>
         <v>1.9994803427952194E-3</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.2036218737281995E-3</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4050169404918482E-2</v>
       </c>
       <c r="E20" s="2">
@@ -4918,7 +4933,7 @@
         <v>2.1157279607271543E-2</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8607113091788882E-2</v>
       </c>
       <c r="G20" t="s">
@@ -4998,27 +5013,27 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f>A24/1000</f>
+        <f t="shared" ref="A26:F26" si="6">A24/1000</f>
         <v>4.0828182669999996E-8</v>
       </c>
       <c r="B26" s="2">
-        <f>B24/1000</f>
+        <f t="shared" si="6"/>
         <v>4.0757669150000003E-8</v>
       </c>
       <c r="C26" s="2">
-        <f>C24/1000</f>
+        <f t="shared" si="6"/>
         <v>4.0611441280000006E-8</v>
       </c>
       <c r="D26" s="2">
-        <f>D24/1000</f>
+        <f t="shared" si="6"/>
         <v>4.0397300870000005E-8</v>
       </c>
       <c r="E26" s="2">
-        <f>E24/1000</f>
+        <f t="shared" si="6"/>
         <v>4.0181695959999998E-8</v>
       </c>
       <c r="F26" s="2">
-        <f>F24/1000</f>
+        <f t="shared" si="6"/>
         <v>3.9964900870000003E-8</v>
       </c>
       <c r="G26" t="s">
@@ -5031,15 +5046,15 @@
         <v>0</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" ref="B27:F27" si="4">($A24 - B24 ) / B24</f>
+        <f t="shared" ref="B27:F27" si="7">($A24 - B24 ) / B24</f>
         <v>1.730067530125153E-3</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.3369539018733427E-3</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0666103693080646E-2</v>
       </c>
       <c r="E27" s="2">
@@ -5047,7 +5062,7 @@
         <v>1.6089084707712791E-2</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.1600999407157956E-2</v>
       </c>
       <c r="G27" t="s">
@@ -5136,15 +5151,15 @@
         <v>4.6300680640000006E-8</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" ref="B33:F33" si="5">B31/1000</f>
+        <f t="shared" ref="B33:F33" si="8">B31/1000</f>
         <v>4.626535683E-8</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.6167218420000006E-8</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.6026038230000001E-8</v>
       </c>
       <c r="E33" s="2">
@@ -5152,7 +5167,7 @@
         <v>4.5893871679999998E-8</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.5761254329999996E-8</v>
       </c>
       <c r="G33" t="s">
@@ -5165,15 +5180,15 @@
         <v>0</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" ref="B34:F34" si="6">($A31 - B31 ) / B31</f>
+        <f t="shared" ref="B34:F34" si="9">($A31 - B31 ) / B31</f>
         <v>7.6350454033668319E-4</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.8908438621067837E-3</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.9671095006606561E-3</v>
       </c>
       <c r="E34" s="2">
@@ -5181,11 +5196,16 @@
         <v>8.864123794926751E-3</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1787839251739457E-2</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">

--- a/f_docs/diagrams.xlsx
+++ b/f_docs/diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Blood_Science\f_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08CC354-6E18-49D4-B726-36E790676D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71195015-5964-4080-A28E-BF455970F013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>М/С</t>
   </si>
@@ -95,23 +95,27 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>Переделать под милимметры</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сделать график с эффективной вязкостью делённой на вязкость плазмы. </t>
   </si>
   <si>
     <t>Перевести в термины вязкости</t>
+  </si>
+  <si>
+    <t>Переделать под милимметры кубические</t>
+  </si>
+  <si>
+    <t>(Убрать М/С)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -150,12 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4358,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9514D8-D60F-4F11-9E53-FB087E6D2D1E}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4373,7 +4378,9 @@
       <c r="A1" s="4">
         <v>0.5</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5">
+        <v>2.6890799999999999E-2</v>
+      </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4647,7 +4654,9 @@
       <c r="A8" s="4">
         <v>0.4</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5">
+        <v>3.3613499999999998E-2</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4800,20 +4809,27 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>0.3</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5">
+        <v>4.4817999999999997E-2</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
         <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4944,6 +4960,9 @@
       <c r="A22">
         <v>0.2</v>
       </c>
+      <c r="B22">
+        <v>6.7226999999999995E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -5073,7 +5092,9 @@
       <c r="A29" s="4">
         <v>0.1</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="5">
+        <v>0.13445399999999999</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -5205,7 +5226,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">

--- a/f_docs/diagrams.xlsx
+++ b/f_docs/diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Blood_Science\f_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71195015-5964-4080-A28E-BF455970F013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F946C2-A99D-4CC3-8FB2-801C8AA6BDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
-  <si>
-    <t>М/С</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>RBC</t>
   </si>
@@ -106,18 +103,34 @@
   <si>
     <t>(Убрать М/С)</t>
   </si>
+  <si>
+    <t>Вязкость</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Delta p</t>
+  </si>
+  <si>
+    <t>rc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +145,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,13 +174,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -218,7 +242,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$30:$F$30</c:f>
+              <c:f>Лист1!$A$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -245,27 +269,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$5:$F$5</c:f>
+              <c:f>Лист1!$A$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.20448905E-8</c:v>
+                  <c:v>1.6543784423082291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1947349949999996E-8</c:v>
+                  <c:v>1.659429533663958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.173071354E-8</c:v>
+                  <c:v>1.6707590253997096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1469292649999997E-8</c:v>
+                  <c:v>1.6846383113516779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1224560929999999E-8</c:v>
+                  <c:v>1.6978421617577495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1010502839999999E-8</c:v>
+                  <c:v>1.7095619604382966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,7 +321,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$30:$F$30</c:f>
+              <c:f>Лист1!$A$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -324,27 +348,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$19:$F$19</c:f>
+              <c:f>Лист1!$A$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.746803294E-8</c:v>
+                  <c:v>1.4149228520809496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7393265840000004E-8</c:v>
+                  <c:v>1.417751962510257</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7200057789999999E-8</c:v>
+                  <c:v>1.4251154212878376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6948894710000005E-8</c:v>
+                  <c:v>1.4348027578475773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6691735629999998E-8</c:v>
+                  <c:v>1.4448587704851443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6425990510000002E-8</c:v>
+                  <c:v>1.4553997101265856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,7 +400,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$30:$F$30</c:f>
+              <c:f>Лист1!$A$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -403,27 +427,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$33:$F$33</c:f>
+              <c:f>Лист1!$A$34:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.6300680640000006E-8</c:v>
+                  <c:v>1.1450020884472201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.626535683E-8</c:v>
+                  <c:v>1.1458763027404444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6167218420000006E-8</c:v>
+                  <c:v>1.1483121107067069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6026038230000001E-8</c:v>
+                  <c:v>1.1518344412874697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5893871679999998E-8</c:v>
+                  <c:v>1.1551515287046656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5761254329999996E-8</c:v>
+                  <c:v>1.1584991890087417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,7 +601,8 @@
         <c:axId val="444031216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.0000000000000024E-8"/>
+          <c:max val="2"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -616,16 +641,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU" b="1"/>
-                  <a:t>Скорость потока (м</a:t>
+                  <a:t>Относительная вязкость</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>/</a:t>
+                  <a:t> (Pa</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" b="1"/>
-                  <a:t>с)</a:t>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> * S)</a:t>
                 </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -694,7 +720,7 @@
         <c:crossAx val="444040336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5.0000000000000026E-9"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -831,7 +857,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$30:$F$30</c:f>
+              <c:f>Лист1!$A$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -858,7 +884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$6:$F$6</c:f>
+              <c:f>Лист1!$A$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -922,7 +948,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$30:$F$30</c:f>
+              <c:f>Лист1!$A$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -949,7 +975,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$20:$F$20</c:f>
+              <c:f>Лист1!$A$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1013,7 +1039,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$30:$F$30</c:f>
+              <c:f>Лист1!$A$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1040,7 +1066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$34:$F$34</c:f>
+              <c:f>Лист1!$A$35:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1444,7 +1470,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$J$2:$N$2</c:f>
+              <c:f>Лист1!$J$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1468,24 +1494,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$3:$N$3</c:f>
+              <c:f>Лист1!$J$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.6300680640000006E-8</c:v>
+                  <c:v>4.6300680640000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0828182669999996E-8</c:v>
+                  <c:v>4.0828182669999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.746803294E-8</c:v>
+                  <c:v>3.7468032939999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4489263900000002E-8</c:v>
+                  <c:v>3.4489263899999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.20448905E-8</c:v>
+                  <c:v>3.2044890499999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1517,7 +1543,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$J$2:$N$2</c:f>
+              <c:f>Лист1!$J$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1541,24 +1567,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$8:$N$8</c:f>
+              <c:f>Лист1!$J$9:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.5761254329999996E-8</c:v>
+                  <c:v>4.5761254329999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9964900870000003E-8</c:v>
+                  <c:v>3.9964900870000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6425990510000002E-8</c:v>
+                  <c:v>3.642599051E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3354694880000004E-8</c:v>
+                  <c:v>3.3354694880000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1010502839999999E-8</c:v>
+                  <c:v>3.1010502840000002E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,7 +1633,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$J$2:$N$2</c15:sqref>
+                          <c15:sqref>Лист1!$J$3:$N$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1637,7 +1663,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$J$4:$N$4</c15:sqref>
+                          <c15:sqref>Лист1!$J$5:$N$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1645,19 +1671,19 @@
                       <c:formatCode>0.000000000E+00</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>4.626535683E-8</c:v>
+                        <c:v>4.6265356830000001E-5</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.0757669150000003E-8</c:v>
+                        <c:v>4.075766915E-5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.7393265840000004E-8</c:v>
+                        <c:v>3.7393265840000003E-5</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.441084986E-8</c:v>
+                        <c:v>3.4410849859999998E-5</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.1947349949999996E-8</c:v>
+                        <c:v>3.1947349949999999E-5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1694,94 +1720,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$J$2:$N$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Лист1!$J$5:$N$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.000000000E+00</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>4.6167218420000006E-8</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.0611441280000006E-8</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.7200057789999999E-8</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.4189056510000001E-8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.173071354E-8</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-88B8-47EA-B380-59007F081B57}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>kd=0.3</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Лист1!$J$2:$N$2</c15:sqref>
+                          <c15:sqref>Лист1!$J$3:$N$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1819,19 +1758,19 @@
                       <c:formatCode>0.000000000E+00</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>4.6026038230000001E-8</c:v>
+                        <c:v>4.6167218420000003E-5</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.0397300870000005E-8</c:v>
+                        <c:v>4.0611441280000003E-5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.6948894710000005E-8</c:v>
+                        <c:v>3.7200057790000002E-5</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.3914951550000003E-8</c:v>
+                        <c:v>3.4189056510000002E-5</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.1469292649999997E-8</c:v>
+                        <c:v>3.1730713539999997E-5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1839,22 +1778,22 @@
                 <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-88B8-47EA-B380-59007F081B57}"/>
+                    <c16:uniqueId val="{00000004-88B8-47EA-B380-59007F081B57}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
+                <c:idx val="3"/>
+                <c:order val="3"/>
                 <c:tx>
-                  <c:v>kd=0.4</c:v>
+                  <c:v>kd=0.3</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent5"/>
+                      <a:schemeClr val="accent4"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -1868,7 +1807,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$J$2:$N$2</c15:sqref>
+                          <c15:sqref>Лист1!$J$3:$N$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1906,19 +1845,106 @@
                       <c:formatCode>0.000000000E+00</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>4.5893871679999998E-8</c:v>
+                        <c:v>4.6026038229999999E-5</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.0181695959999998E-8</c:v>
+                        <c:v>4.0397300870000002E-5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3.6691735629999998E-8</c:v>
+                        <c:v>3.6948894710000003E-5</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.3628515550000003E-8</c:v>
+                        <c:v>3.3914951550000003E-5</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.1224560929999999E-8</c:v>
+                        <c:v>3.1469292649999997E-5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-88B8-47EA-B380-59007F081B57}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>kd=0.4</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$J$3:$N$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$J$8:$N$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000000000E+00</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>4.589387168E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.0181695959999998E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.6691735630000001E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.362851555E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.1224560929999997E-5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2044,6 +2070,7 @@
         <c:axId val="653003648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2.000000000000001E-8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2089,7 +2116,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Скорость потока (м</a:t>
+                  <a:t>Скорость потока (мм</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2100,7 +2127,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>/</a:t>
+                  <a:t>^3/</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2111,8 +2138,27 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>с)</a:t>
+                  <a:t>с</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2145,7 +2191,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000000000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3937,13 +3983,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1306083</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>193643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>65347</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>187073</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3973,13 +4019,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1255643</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4009,13 +4055,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>3401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4361,10 +4407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9514D8-D60F-4F11-9E53-FB087E6D2D1E}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4375,902 +4421,937 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B1" s="5">
-        <v>2.6890799999999999E-2</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F2" s="4">
         <v>0.5</v>
       </c>
-      <c r="J2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0.5</v>
+      <c r="B2" s="6">
+        <v>2.6890799999999999E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <f>(5 * B2) / 3 * 1000</f>
+        <v>44.817999999999998</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="H2">
+        <f xml:space="preserve"> 0.003</f>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>3.2044890499999999E-5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3.1947349949999999E-5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.1730713539999997E-5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.1469292649999997E-5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.1224560929999997E-5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.1010502840000002E-5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2">
-        <f>A33</f>
-        <v>4.6300680640000006E-8</v>
-      </c>
-      <c r="K3" s="2">
-        <f>A26</f>
-        <v>4.0828182669999996E-8</v>
-      </c>
-      <c r="L3" s="2">
-        <f>A19</f>
-        <v>3.746803294E-8</v>
-      </c>
-      <c r="M3" s="2">
-        <f>A12</f>
-        <v>3.4489263900000002E-8</v>
-      </c>
-      <c r="N3" s="2">
-        <f>A5</f>
-        <v>3.20448905E-8</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3.2041589059999997E-5</v>
+        <v>3.2044890499999999E-5</v>
       </c>
       <c r="B4" s="2">
-        <v>3.1943903419999998E-5</v>
+        <v>3.1947349949999999E-5</v>
       </c>
       <c r="C4" s="2">
-        <v>3.1727213960000002E-5</v>
+        <v>3.1730713539999997E-5</v>
       </c>
       <c r="D4" s="2">
-        <v>3.1465773689999997E-5</v>
+        <v>3.1469292649999997E-5</v>
       </c>
       <c r="E4" s="2">
-        <v>3.1221047769999997E-5</v>
+        <v>3.1224560929999997E-5</v>
       </c>
       <c r="F4" s="2">
-        <v>3.1007014449999997E-5</v>
+        <v>3.1010502840000002E-5</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="2">
-        <f>B33</f>
-        <v>4.626535683E-8</v>
+        <f>A32</f>
+        <v>4.6300680640000003E-5</v>
       </c>
       <c r="K4" s="2">
-        <f>B26</f>
-        <v>4.0757669150000003E-8</v>
+        <f>A25</f>
+        <v>4.0828182669999999E-5</v>
       </c>
       <c r="L4" s="2">
-        <f>B19</f>
-        <v>3.7393265840000004E-8</v>
+        <f>A18</f>
+        <v>3.7468032939999999E-5</v>
       </c>
       <c r="M4" s="2">
-        <f>B12</f>
-        <v>3.441084986E-8</v>
+        <f>A11</f>
+        <v>3.4489263899999999E-5</v>
       </c>
       <c r="N4" s="2">
-        <f>B5</f>
-        <v>3.1947349949999996E-8</v>
-      </c>
+        <f>A4</f>
+        <v>3.2044890499999999E-5</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f>A3/1000</f>
-        <v>3.20448905E-8</v>
+        <v>3.2041589059999997E-5</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:F5" si="0">B3/1000</f>
-        <v>3.1947349949999996E-8</v>
+        <v>3.1943903419999998E-5</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.173071354E-8</v>
+        <v>3.1727213960000002E-5</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1469292649999997E-8</v>
+        <v>3.1465773689999997E-5</v>
       </c>
       <c r="E5" s="2">
-        <f>E3/1000</f>
-        <v>3.1224560929999999E-8</v>
+        <v>3.1221047769999997E-5</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1010502839999999E-8</v>
+        <v>3.1007014449999997E-5</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2">
-        <f>C33</f>
-        <v>4.6167218420000006E-8</v>
+        <f>B32</f>
+        <v>4.6265356830000001E-5</v>
       </c>
       <c r="K5" s="2">
-        <f>C26</f>
-        <v>4.0611441280000006E-8</v>
+        <f>B25</f>
+        <v>4.075766915E-5</v>
       </c>
       <c r="L5" s="2">
-        <f>C19</f>
-        <v>3.7200057789999999E-8</v>
+        <f>B18</f>
+        <v>3.7393265840000003E-5</v>
       </c>
       <c r="M5" s="2">
-        <f>C12</f>
-        <v>3.4189056510000001E-8</v>
+        <f>B11</f>
+        <v>3.4410849859999998E-5</v>
       </c>
       <c r="N5" s="2">
-        <f>C5</f>
-        <v>3.173071354E-8</v>
+        <f>B4</f>
+        <v>3.1947349949999999E-5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f>($A3 - A3 ) / A3</f>
+        <f>((PI() / 8) * ($H$2^4 / $B2) * ($C2 / A4)) / 0.001</f>
+        <v>1.6543784423082291</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:F6" si="0">((PI() / 8) * ($H$2^4 / $B2) * ($C2 / B4)) / 0.001</f>
+        <v>1.659429533663958</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6707590253997096</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6846383113516779</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6978421617577495</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7095619604382966</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2">
+        <f>C32</f>
+        <v>4.6167218420000003E-5</v>
+      </c>
+      <c r="K6" s="2">
+        <f>C25</f>
+        <v>4.0611441280000003E-5</v>
+      </c>
+      <c r="L6" s="2">
+        <f>C18</f>
+        <v>3.7200057790000002E-5</v>
+      </c>
+      <c r="M6" s="2">
+        <f>C11</f>
+        <v>3.4189056510000002E-5</v>
+      </c>
+      <c r="N6" s="2">
+        <f>C4</f>
+        <v>3.1730713539999997E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>($A4 - A4 ) / A4</f>
         <v>0</v>
       </c>
-      <c r="B6" s="2">
-        <f t="shared" ref="B6:F6" si="1">($A3 - B3 ) / B3</f>
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:F7" si="1">($A4 - B4 ) / B4</f>
         <v>3.0531656038030866E-3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>9.9013518748624491E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>1.829077813733453E-2</v>
       </c>
-      <c r="E6" s="2">
-        <f>($A3 - E3 ) / E3</f>
+      <c r="E7" s="2">
+        <f>($A4 - E4 ) / E4</f>
         <v>2.6271932913293411E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>3.3356042800626762E-2</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2">
-        <f>D33</f>
-        <v>4.6026038230000001E-8</v>
-      </c>
-      <c r="K6" s="2">
-        <f>D26</f>
-        <v>4.0397300870000005E-8</v>
-      </c>
-      <c r="L6" s="2">
-        <f>D19</f>
-        <v>3.6948894710000005E-8</v>
-      </c>
-      <c r="M6" s="2">
-        <f>D12</f>
-        <v>3.3914951550000003E-8</v>
-      </c>
-      <c r="N6" s="2">
-        <f>D5</f>
-        <v>3.1469292649999997E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="2">
-        <f>E33</f>
-        <v>4.5893871679999998E-8</v>
+        <f>D32</f>
+        <v>4.6026038229999999E-5</v>
       </c>
       <c r="K7" s="2">
-        <f>E26</f>
-        <v>4.0181695959999998E-8</v>
+        <f>D25</f>
+        <v>4.0397300870000002E-5</v>
       </c>
       <c r="L7" s="2">
-        <f>E19</f>
-        <v>3.6691735629999998E-8</v>
+        <f>D18</f>
+        <v>3.6948894710000003E-5</v>
       </c>
       <c r="M7" s="2">
-        <f>E12</f>
-        <v>3.3628515550000003E-8</v>
+        <f>D11</f>
+        <v>3.3914951550000003E-5</v>
       </c>
       <c r="N7" s="2">
-        <f>E5</f>
-        <v>3.1224560929999999E-8</v>
+        <f>D4</f>
+        <v>3.1469292649999997E-5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3.3613499999999998E-2</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="2">
-        <f>F33</f>
-        <v>4.5761254329999996E-8</v>
+        <f>E32</f>
+        <v>4.589387168E-5</v>
       </c>
       <c r="K8" s="2">
-        <f>F26</f>
-        <v>3.9964900870000003E-8</v>
+        <f>E25</f>
+        <v>4.0181695959999998E-5</v>
       </c>
       <c r="L8" s="2">
-        <f>F19</f>
-        <v>3.6425990510000002E-8</v>
+        <f>E18</f>
+        <v>3.6691735630000001E-5</v>
       </c>
       <c r="M8" s="2">
-        <f>F12</f>
-        <v>3.3354694880000004E-8</v>
+        <f>E11</f>
+        <v>3.362851555E-5</v>
       </c>
       <c r="N8" s="2">
-        <f>F5</f>
-        <v>3.1010502839999999E-8</v>
+        <f>E4</f>
+        <v>3.1224560929999997E-5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="4">
         <v>0.4</v>
       </c>
-      <c r="F9" s="4">
-        <v>0.5</v>
+      <c r="B9" s="6">
+        <v>3.3613499999999998E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <f>(5 * B9) / 3 * 1000</f>
+        <v>56.022499999999994</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2">
+        <f>F32</f>
+        <v>4.5761254329999997E-5</v>
+      </c>
+      <c r="K9" s="2">
+        <f>F25</f>
+        <v>3.9964900870000003E-5</v>
+      </c>
+      <c r="L9" s="2">
+        <f>F18</f>
+        <v>3.642599051E-5</v>
+      </c>
+      <c r="M9" s="2">
+        <f>F11</f>
+        <v>3.3354694880000003E-5</v>
+      </c>
+      <c r="N9" s="2">
+        <f>F4</f>
+        <v>3.1010502840000002E-5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>3.4489263899999999E-5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3.4410849859999998E-5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3.4189056510000002E-5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3.3914951550000003E-5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3.362851555E-5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3.3354694880000003E-5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>3.4488175180000001E-5</v>
+        <v>3.4489263899999999E-5</v>
       </c>
       <c r="B11" s="2">
-        <v>3.4409680060000001E-5</v>
+        <v>3.4410849859999998E-5</v>
       </c>
       <c r="C11" s="2">
-        <v>3.4187882809999999E-5</v>
+        <v>3.4189056510000002E-5</v>
       </c>
       <c r="D11" s="2">
-        <v>3.3913809399999998E-5</v>
+        <v>3.3914951550000003E-5</v>
       </c>
       <c r="E11" s="2">
-        <v>3.3627419139999999E-5</v>
+        <v>3.362851555E-5</v>
       </c>
       <c r="F11" s="2">
-        <v>3.3353637530000001E-5</v>
+        <v>3.3354694880000003E-5</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" ref="A12:F12" si="2">A10/1000</f>
-        <v>3.4489263900000002E-8</v>
+        <v>3.4488175180000001E-5</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="2"/>
-        <v>3.441084986E-8</v>
+        <v>3.4409680060000001E-5</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4189056510000001E-8</v>
+        <v>3.4187882809999999E-5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>3.3914951550000003E-8</v>
+        <v>3.3913809399999998E-5</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
-        <v>3.3628515550000003E-8</v>
+        <v>3.3627419139999999E-5</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>3.3354694880000004E-8</v>
+        <v>3.3353637530000001E-5</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f>($A10 - A10 ) / A10</f>
+        <f>((PI() / 8) * ($H$2^4 / $B9) * ($C9 / A11)) / 0.001</f>
+        <v>1.537126921091748</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:F13" si="2">((PI() / 8) * ($H$2^4 / $B9) * ($C9 / B11)) / 0.001</f>
+        <v>1.5406296631735608</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.550624130672384</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5631564724829383</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5764708956749585</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5894127114655761</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>($A11 - A11 ) / A11</f>
         <v>0</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" ref="B13:F13" si="3">($A10 - B10 ) / B10</f>
+      <c r="B14" s="2">
+        <f t="shared" ref="B14:F14" si="3">($A11 - B11 ) / B11</f>
         <v>2.2787591797071667E-3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <f t="shared" si="3"/>
         <v>8.7808035858546896E-3</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <f t="shared" si="3"/>
         <v>1.6933898583145566E-2</v>
       </c>
-      <c r="E13" s="2">
-        <f>($A10 - E10 ) / E10</f>
+      <c r="E14" s="2">
+        <f>($A11 - E11 ) / E11</f>
         <v>2.5595787858081611E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="3"/>
         <v>3.4015272035370983E-2</v>
       </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>22</v>
+      <c r="G14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4.4817999999999997E-2</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
       <c r="I15" t="s">
         <v>21</v>
-      </c>
-      <c r="L15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="4">
         <v>0.3</v>
       </c>
-      <c r="E16" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.5</v>
+      <c r="B16" s="6">
+        <v>4.4817999999999997E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f>(5 * B16) / 3 * 1000</f>
+        <v>74.696666666666658</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>3.7468032939999999E-5</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3.7393265840000003E-5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3.7200057790000002E-5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3.6948894710000003E-5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3.6691735630000001E-5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3.642599051E-5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>3.7469717730000002E-5</v>
+        <v>3.7468032939999999E-5</v>
       </c>
       <c r="B18" s="2">
-        <v>3.7394964249999997E-5</v>
+        <v>3.7393265840000003E-5</v>
       </c>
       <c r="C18" s="2">
-        <v>3.7201825420000001E-5</v>
+        <v>3.7200057790000002E-5</v>
       </c>
       <c r="D18" s="2">
-        <v>3.695073911E-5</v>
+        <v>3.6948894710000003E-5</v>
       </c>
       <c r="E18" s="2">
-        <v>3.6693667620000003E-5</v>
+        <v>3.6691735630000001E-5</v>
       </c>
       <c r="F18" s="2">
-        <v>3.6427938280000003E-5</v>
+        <v>3.642599051E-5</v>
       </c>
       <c r="G18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" ref="A19:F19" si="4">A17/1000</f>
-        <v>3.746803294E-8</v>
+        <v>3.7469717730000002E-5</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="4"/>
-        <v>3.7393265840000004E-8</v>
+        <v>3.7394964249999997E-5</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="4"/>
-        <v>3.7200057789999999E-8</v>
+        <v>3.7201825420000001E-5</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="4"/>
-        <v>3.6948894710000005E-8</v>
+        <v>3.695073911E-5</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="4"/>
-        <v>3.6691735629999998E-8</v>
+        <v>3.6693667620000003E-5</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="4"/>
-        <v>3.6425990510000002E-8</v>
+        <v>3.6427938280000003E-5</v>
       </c>
       <c r="G19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f>($A17 - A17 ) / A17</f>
+        <f>((PI() / 8) * ($H$2^4 / $B16) * ($C16 / A18)) / 0.001</f>
+        <v>1.4149228520809496</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ref="B20:F20" si="4">((PI() / 8) * ($H$2^4 / $B16) * ($C16 / B18)) / 0.001</f>
+        <v>1.417751962510257</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4251154212878376</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4348027578475773</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4448587704851443</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4553997101265856</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f>($A18 - A18 ) / A18</f>
         <v>0</v>
       </c>
-      <c r="B20" s="2">
-        <f t="shared" ref="B20:F20" si="5">($A17 - B17 ) / B17</f>
+      <c r="B21" s="2">
+        <f t="shared" ref="B21:F21" si="5">($A18 - B18 ) / B18</f>
         <v>1.9994803427952194E-3</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>7.2036218737281995E-3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <f t="shared" si="5"/>
         <v>1.4050169404918482E-2</v>
       </c>
-      <c r="E20" s="2">
-        <f>($A17 - E17 ) / E17</f>
+      <c r="E21" s="2">
+        <f>($A18 - E18 ) / E18</f>
         <v>2.1157279607271543E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <f t="shared" si="5"/>
         <v>2.8607113091788882E-2</v>
       </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.2</v>
-      </c>
-      <c r="B22">
-        <v>6.7226999999999995E-2</v>
+      <c r="G21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="A23">
         <v>0.2</v>
       </c>
-      <c r="D23" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.5</v>
+      <c r="B23">
+        <v>6.7226999999999995E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <f>(5 * B23) / 3 * 1000</f>
+        <v>112.04499999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>4.0828182669999999E-5</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4.075766915E-5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4.0611441280000003E-5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4.0397300870000002E-5</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4.0181695959999998E-5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3.9964900870000003E-5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1</v>
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>4.0830465399999999E-5</v>
+        <v>4.0828182669999999E-5</v>
       </c>
       <c r="B25" s="2">
-        <v>4.0760041469999997E-5</v>
+        <v>4.075766915E-5</v>
       </c>
       <c r="C25" s="2">
-        <v>4.0613937530000003E-5</v>
+        <v>4.0611441280000003E-5</v>
       </c>
       <c r="D25" s="2">
-        <v>4.0399903009999997E-5</v>
+        <v>4.0397300870000002E-5</v>
       </c>
       <c r="E25" s="2">
-        <v>4.0184420590000002E-5</v>
+        <v>4.0181695959999998E-5</v>
       </c>
       <c r="F25" s="2">
-        <v>3.9967713599999999E-5</v>
+        <v>3.9964900870000003E-5</v>
       </c>
       <c r="G25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" ref="A26:F26" si="6">A24/1000</f>
-        <v>4.0828182669999996E-8</v>
+        <v>4.0830465399999999E-5</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="6"/>
-        <v>4.0757669150000003E-8</v>
+        <v>4.0760041469999997E-5</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="6"/>
-        <v>4.0611441280000006E-8</v>
+        <v>4.0613937530000003E-5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="6"/>
-        <v>4.0397300870000005E-8</v>
+        <v>4.0399903009999997E-5</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="6"/>
-        <v>4.0181695959999998E-8</v>
+        <v>4.0184420590000002E-5</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="6"/>
-        <v>3.9964900870000003E-8</v>
+        <v>3.9967713599999999E-5</v>
       </c>
       <c r="G26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f>($A24 - A24 ) / A24</f>
+        <f>((PI() / 8) * ($H$2^4 / $B23) * ($C23 / A25)) / 0.001</f>
+        <v>1.2984750376431038</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ref="B27:F27" si="6">((PI() / 8) * ($H$2^4 / $B23) * ($C23 / B25)) / 0.001</f>
+        <v>1.3007214871444082</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3054049390617384</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3123247070374819</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3193663125145942</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="6"/>
+        <v>1.326523396161442</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f>($A25 - A25 ) / A25</f>
         <v>0</v>
       </c>
-      <c r="B27" s="2">
-        <f t="shared" ref="B27:F27" si="7">($A24 - B24 ) / B24</f>
+      <c r="B28" s="2">
+        <f t="shared" ref="B28:F28" si="7">($A25 - B25 ) / B25</f>
         <v>1.730067530125153E-3</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <f t="shared" si="7"/>
         <v>5.3369539018733427E-3</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <f t="shared" si="7"/>
         <v>1.0666103693080646E-2</v>
       </c>
-      <c r="E27" s="2">
-        <f>($A24 - E24 ) / E24</f>
+      <c r="E28" s="2">
+        <f>($A25 - E25 ) / E25</f>
         <v>1.6089084707712791E-2</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="2">
         <f t="shared" si="7"/>
         <v>2.1600999407157956E-2</v>
       </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.13445399999999999</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4">
         <v>0.1</v>
       </c>
-      <c r="C30" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="B30" s="6">
+        <v>0.13445399999999999</v>
+      </c>
+      <c r="C30" s="5">
+        <f>(5 * B30) / 3 * 1000</f>
+        <v>224.08999999999997</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>4.6300680640000003E-5</v>
-      </c>
-      <c r="B31" s="2">
-        <v>4.6265356830000001E-5</v>
-      </c>
-      <c r="C31" s="2">
-        <v>4.6167218420000003E-5</v>
-      </c>
-      <c r="D31" s="2">
-        <v>4.6026038229999999E-5</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4.589387168E-5</v>
-      </c>
-      <c r="F31" s="2">
-        <v>4.5761254329999997E-5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1</v>
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>4.628104246E-5</v>
+        <v>4.6300680640000003E-5</v>
       </c>
       <c r="B32" s="2">
-        <v>4.6245708739999999E-5</v>
+        <v>4.6265356830000001E-5</v>
       </c>
       <c r="C32" s="2">
-        <v>4.6147570000000003E-5</v>
+        <v>4.6167218420000003E-5</v>
       </c>
       <c r="D32" s="2">
-        <v>4.6006397689999997E-5</v>
+        <v>4.6026038229999999E-5</v>
       </c>
       <c r="E32" s="2">
-        <v>4.587424277E-5</v>
+        <v>4.589387168E-5</v>
       </c>
       <c r="F32" s="2">
-        <v>4.5741629190000002E-5</v>
+        <v>4.5761254329999997E-5</v>
       </c>
       <c r="G32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f>A31/1000</f>
-        <v>4.6300680640000006E-8</v>
+        <v>4.628104246E-5</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" ref="B33:F33" si="8">B31/1000</f>
-        <v>4.626535683E-8</v>
+        <v>4.6245708739999999E-5</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="8"/>
-        <v>4.6167218420000006E-8</v>
+        <v>4.6147570000000003E-5</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="8"/>
-        <v>4.6026038230000001E-8</v>
+        <v>4.6006397689999997E-5</v>
       </c>
       <c r="E33" s="2">
-        <f>E31/1000</f>
-        <v>4.5893871679999998E-8</v>
+        <v>4.587424277E-5</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="8"/>
-        <v>4.5761254329999996E-8</v>
+        <v>4.5741629190000002E-5</v>
       </c>
       <c r="G33" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f>($A31 - A31 ) / A31</f>
+        <f>((PI() / 8) * ($H$2^4 / $B30) * ($C30 / A32)) / 0.001</f>
+        <v>1.1450020884472201</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" ref="B34:F34" si="8">((PI() / 8) * ($H$2^4 / $B30) * ($C30 / B32)) / 0.001</f>
+        <v>1.1458763027404444</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1483121107067069</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1518344412874697</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1551515287046656</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1584991890087417</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f>($A32 - A32 ) / A32</f>
         <v>0</v>
       </c>
-      <c r="B34" s="2">
-        <f t="shared" ref="B34:F34" si="9">($A31 - B31 ) / B31</f>
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:F35" si="9">($A32 - B32 ) / B32</f>
         <v>7.6350454033668319E-4</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <f t="shared" si="9"/>
         <v>2.8908438621067837E-3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <f t="shared" si="9"/>
         <v>5.9671095006606561E-3</v>
       </c>
-      <c r="E34" s="2">
-        <f>($A31 - E31 ) / E31</f>
+      <c r="E35" s="2">
+        <f>($A32 - E32 ) / E32</f>
         <v>8.864123794926751E-3</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
         <f t="shared" si="9"/>
         <v>1.1787839251739457E-2</v>
       </c>
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>20</v>
+      <c r="G35" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>4</v>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="F40" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G68" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/f_docs/diagrams.xlsx
+++ b/f_docs/diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Blood_Science\f_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F946C2-A99D-4CC3-8FB2-801C8AA6BDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D7756-0EEF-4EEF-8285-EC079795A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>RBC</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>rc</t>
+  </si>
+  <si>
+    <t>Показать вязкость, показать поток (между ними формула) и в конце погрешность и немного информации про реалистичный гематокрит</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,15 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> * S)</a:t>
+                  <a:t> * </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t>с</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU" b="1"/>
               </a:p>
@@ -4409,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9514D8-D60F-4F11-9E53-FB087E6D2D1E}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5322,6 +5333,9 @@
       <c r="B62" t="s">
         <v>3</v>
       </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">

--- a/f_docs/diagrams.xlsx
+++ b/f_docs/diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Blood_Science\f_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D7756-0EEF-4EEF-8285-EC079795A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9EFDD9-1801-47D5-8B7B-1C3B6492B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>RBC</t>
   </si>
@@ -92,16 +92,7 @@
     <t>0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Сделать график с эффективной вязкостью делённой на вязкость плазмы. </t>
-  </si>
-  <si>
     <t>Перевести в термины вязкости</t>
-  </si>
-  <si>
-    <t>Переделать под милимметры кубические</t>
-  </si>
-  <si>
-    <t>(Убрать М/С)</t>
   </si>
   <si>
     <t>Вязкость</t>
@@ -130,8 +121,8 @@
     <numFmt numFmtId="164" formatCode="0.000000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -183,8 +174,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2081,7 +2072,7 @@
         <c:axId val="653003648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="2.000000000000001E-8"/>
+          <c:min val="2.0000000000000008E-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2138,7 +2129,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>^3/</a:t>
+                  <a:t>/</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2236,6 +2227,648 @@
         <c:crossAx val="653003168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>H = 0,5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2044890499999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1947349949999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1730713539999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1469292649999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1224560929999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1010502840000002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA2B-4B25-B699-957BAC1B6337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>H = 0,3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7468032939999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7393265840000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7200057790000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6948894710000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6691735630000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.642599051E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA2B-4B25-B699-957BAC1B6337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>H = 0,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$32:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.6300680640000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6265356830000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6167218420000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6026038229999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.589387168E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5761254329999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA2B-4B25-B699-957BAC1B6337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444040336"/>
+        <c:axId val="444031216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444040336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Коэффициент</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t> деформации</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444031216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444031216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0000000000000023E-5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Скорость потока (мм</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>с</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444040336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.0000000000000021E-6"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2440,6 +3073,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3473,6 +4146,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4028,14 +5217,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1255643</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8734</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>427413</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -4093,6 +5282,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1111622</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1243852</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>11361</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4168A1-E98F-493C-83DD-490101C478C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4420,8 +5647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9514D8-D60F-4F11-9E53-FB087E6D2D1E}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="H13:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4433,16 +5660,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4619,7 +5846,7 @@
         <v>1.7095619604382966</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -4858,7 +6085,7 @@
         <v>1.5894127114655761</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4890,11 +6117,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>0.3</v>
@@ -4909,12 +6131,6 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5008,7 +6224,7 @@
         <v>1.4553997101265856</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5144,7 +6360,7 @@
         <v>1.326523396161442</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5283,7 +6499,7 @@
         <v>1.1584991890087417</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -5317,7 +6533,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5334,7 +6550,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">

--- a/f_docs/diagrams.xlsx
+++ b/f_docs/diagrams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Blood_Science\f_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9EFDD9-1801-47D5-8B7B-1C3B6492B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E26288D-74B9-499C-9D20-65A65410A610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="9300" xr2:uid="{95F94ED8-E557-4303-916E-CFAB635386ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>RBC</t>
   </si>
@@ -1275,7 +1275,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU" b="1"/>
-                  <a:t>Погрешность (</a:t>
+                  <a:t>Относительная погрешность (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
@@ -2118,7 +2118,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Скорость потока (мм</a:t>
+                  <a:t>Скорость потока, мл</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2142,25 +2142,6 @@
                   </a:rPr>
                   <a:t>с</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2953,6 +2934,1201 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>H = 0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$86:$E$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$80:$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.659028262E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6608559260000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6300680640000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4889606870000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5844671920000003E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9CE9-4F80-AF0E-1D0669352755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>H = 0.3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$86:$E$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$87:$E$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8229698479999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7981510579999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7468032939999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7908744169999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7045756500000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9CE9-4F80-AF0E-1D0669352755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>H = 0.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$94:$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2541386990000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2548224720000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2044890499999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2597201710000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1357109739999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9CE9-4F80-AF0E-1D0669352755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444040336"/>
+        <c:axId val="444031216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444040336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Коэффициент</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t> деформации</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444031216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444031216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.0000000000000011E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Относительная вязкость</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t> (Pa</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> * </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t>с</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444040336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>H = 0.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$94:$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2541386990000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2548224720000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2044890499999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2597201710000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1357109739999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C2A-488A-9806-B5128D357A3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444040336"/>
+        <c:axId val="444031216"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>H = 0.1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$86:$E$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$80:$E$80</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000000000E+00</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>4.659028262E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.6608559260000003E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.6300680640000003E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.4889606870000003E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.5844671920000003E-5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3C2A-488A-9806-B5128D357A3A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>H = 0.3</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$86:$E$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$87:$E$87</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000000000E+00</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3.8229698479999997E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.7981510579999999E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.7468032939999999E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.7908744169999999E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.7045756500000001E-5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3C2A-488A-9806-B5128D357A3A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444040336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Коэффициент</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t> деформации</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444031216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444031216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Относительная вязкость</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t> (Pa</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> * </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1" baseline="0"/>
+                  <a:t>с</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444040336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3113,6 +4289,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4662,6 +5918,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5320,6 +7608,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>417734</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A5FD58-22E2-42A8-9FD5-8DA5567C50E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>687456</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>557077</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F5C883-4DEE-4D56-83BF-E497D8F5F9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5645,16 +8009,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9514D8-D60F-4F11-9E53-FB087E6D2D1E}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R13" sqref="H13:R17"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6561,17 +8925,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>8</v>
       </c>
@@ -6579,10 +8943,224 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>4.659028262E-5</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4.6608559260000003E-5</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4.6300680640000003E-5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.4889606870000003E-5</v>
+      </c>
+      <c r="E80" s="2">
+        <v>4.5844671920000003E-5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>5.8218689020000002E-5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4.6603440549999998E-5</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4.628104246E-5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4.4861677440000001E-5</v>
+      </c>
+      <c r="E81" s="2">
+        <v>4.583200199E-5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>3.8229698479999997E-5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3.7981510579999999E-5</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3.7468032939999999E-5</v>
+      </c>
+      <c r="D87" s="2">
+        <v>3.7908744169999999E-5</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3.7045756500000001E-5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>4.1744839839999999E-5</v>
+      </c>
+      <c r="B88" s="2">
+        <v>3.7974685530000001E-5</v>
+      </c>
+      <c r="C88" s="2">
+        <v>3.7469717730000002E-5</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3.7900295179999997E-5</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3.7045127120000001E-5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>3.2541386990000001E-5</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3.2548224720000001E-5</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3.2044890499999999E-5</v>
+      </c>
+      <c r="D94" s="2">
+        <v>3.2597201710000001E-5</v>
+      </c>
+      <c r="E94" s="2">
+        <v>3.1357109739999997E-5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>1.60089036E-5</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3.2551716569999999E-5</v>
+      </c>
+      <c r="C95" s="2">
+        <v>3.2041589059999997E-5</v>
+      </c>
+      <c r="D95" s="2">
+        <v>3.2601002640000003E-5</v>
+      </c>
+      <c r="E95" s="2">
+        <v>3.1368927529999998E-5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
